--- a/data/trans_orig/P14A24_2015-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A24_2015-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8980D98-495C-431D-84AC-3FFDDAE2021C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0B3A927-A430-491F-8981-0DABFFE50F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7847C6AA-1E17-426B-9B6E-540918FC6EC3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{89904A02-82D3-41BD-A7F9-27B78DD3CF2B}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="131">
   <si>
     <t>Población que recibe medicación o terapia por trastornos de ansiedad en 2015 (Tasa respuesta: 4,2%)</t>
   </si>
@@ -83,16 +83,16 @@
     <t>78,03%</t>
   </si>
   <si>
-    <t>35,78%</t>
+    <t>30,19%</t>
   </si>
   <si>
     <t>73,46%</t>
   </si>
   <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,16 +104,16 @@
     <t>21,97%</t>
   </si>
   <si>
-    <t>64,22%</t>
+    <t>69,81%</t>
   </si>
   <si>
     <t>26,54%</t>
   </si>
   <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
   </si>
   <si>
     <t>100%</t>
@@ -125,37 +125,43 @@
     <t>84,71%</t>
   </si>
   <si>
-    <t>40,37%</t>
+    <t>40,45%</t>
   </si>
   <si>
     <t>84,32%</t>
   </si>
   <si>
-    <t>58,81%</t>
+    <t>58,49%</t>
   </si>
   <si>
     <t>84,46%</t>
   </si>
   <si>
-    <t>63,3%</t>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
   </si>
   <si>
     <t>15,29%</t>
   </si>
   <si>
-    <t>59,63%</t>
+    <t>59,55%</t>
   </si>
   <si>
     <t>15,68%</t>
   </si>
   <si>
-    <t>41,19%</t>
+    <t>41,51%</t>
   </si>
   <si>
     <t>15,54%</t>
   </si>
   <si>
-    <t>36,7%</t>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -164,49 +170,49 @@
     <t>91,55%</t>
   </si>
   <si>
-    <t>63,99%</t>
+    <t>64,25%</t>
   </si>
   <si>
     <t>87,57%</t>
   </si>
   <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
   </si>
   <si>
     <t>88,5%</t>
   </si>
   <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
   </si>
   <si>
     <t>8,45%</t>
   </si>
   <si>
-    <t>36,01%</t>
+    <t>35,75%</t>
   </si>
   <si>
     <t>12,43%</t>
   </si>
   <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
   </si>
   <si>
     <t>11,5%</t>
   </si>
   <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -215,55 +221,55 @@
     <t>82,96%</t>
   </si>
   <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
   </si>
   <si>
     <t>92,23%</t>
   </si>
   <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
   </si>
   <si>
     <t>89,87%</t>
   </si>
   <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
   </si>
   <si>
     <t>17,04%</t>
   </si>
   <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
   </si>
   <si>
     <t>7,77%</t>
   </si>
   <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
   </si>
   <si>
     <t>10,13%</t>
   </si>
   <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -272,49 +278,49 @@
     <t>83,73%</t>
   </si>
   <si>
-    <t>53,23%</t>
+    <t>50,97%</t>
   </si>
   <si>
     <t>85,51%</t>
   </si>
   <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
   </si>
   <si>
     <t>85,09%</t>
   </si>
   <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
   </si>
   <si>
     <t>16,27%</t>
   </si>
   <si>
-    <t>46,77%</t>
+    <t>49,03%</t>
   </si>
   <si>
     <t>14,49%</t>
   </si>
   <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
   </si>
   <si>
     <t>14,91%</t>
   </si>
   <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -323,97 +329,103 @@
     <t>79,34%</t>
   </si>
   <si>
-    <t>42,57%</t>
+    <t>42,18%</t>
   </si>
   <si>
     <t>92,61%</t>
   </si>
   <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
   </si>
   <si>
     <t>90,89%</t>
   </si>
   <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
   </si>
   <si>
     <t>20,66%</t>
   </si>
   <si>
-    <t>57,43%</t>
+    <t>57,82%</t>
   </si>
   <si>
     <t>7,39%</t>
   </si>
   <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
   </si>
   <si>
     <t>9,11%</t>
   </si>
   <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
   </si>
   <si>
     <t>83,28%</t>
   </si>
   <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
   </si>
   <si>
     <t>89,14%</t>
   </si>
   <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
   </si>
   <si>
     <t>87,86%</t>
   </si>
   <si>
-    <t>91,34%</t>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
   </si>
   <si>
     <t>16,72%</t>
   </si>
   <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
   </si>
   <si>
     <t>10,86%</t>
   </si>
   <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
   </si>
   <si>
     <t>12,14%</t>
   </si>
   <si>
-    <t>8,66%</t>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -828,7 +840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF9D64BD-F0B2-4E08-A592-4E5732B0E377}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{669C3C9E-4CF7-470D-96AB-E5E28184E940}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1143,7 +1155,7 @@
         <v>33</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1158,13 +1170,13 @@
         <v>1055</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -1173,13 +1185,13 @@
         <v>1845</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -1188,13 +1200,13 @@
         <v>2900</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1250,7 +1262,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1262,10 +1274,10 @@
         <v>10121</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -1277,13 +1289,13 @@
         <v>31727</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M10" s="7">
         <v>43</v>
@@ -1292,13 +1304,13 @@
         <v>41848</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1313,13 +1325,13 @@
         <v>935</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -1328,13 +1340,13 @@
         <v>4503</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -1343,13 +1355,13 @@
         <v>5438</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1405,7 +1417,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1417,13 +1429,13 @@
         <v>14798</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
@@ -1432,13 +1444,13 @@
         <v>47979</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M13" s="7">
         <v>58</v>
@@ -1447,13 +1459,13 @@
         <v>62777</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1468,13 +1480,13 @@
         <v>3039</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -1483,13 +1495,13 @@
         <v>4041</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -1498,13 +1510,13 @@
         <v>7080</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1560,7 +1572,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1572,10 +1584,10 @@
         <v>13730</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -1587,13 +1599,13 @@
         <v>44826</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M16" s="7">
         <v>52</v>
@@ -1602,13 +1614,13 @@
         <v>58556</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1623,13 +1635,13 @@
         <v>2668</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -1638,13 +1650,13 @@
         <v>7595</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -1653,13 +1665,13 @@
         <v>10262</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1715,7 +1727,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1727,10 +1739,10 @@
         <v>8308</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
@@ -1742,13 +1754,13 @@
         <v>65425</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M19" s="7">
         <v>65</v>
@@ -1757,13 +1769,13 @@
         <v>73734</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1778,13 +1790,13 @@
         <v>2164</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -1793,13 +1805,13 @@
         <v>5224</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -1808,13 +1820,13 @@
         <v>7388</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1882,13 +1894,13 @@
         <v>53861</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H22" s="7">
         <v>189</v>
@@ -1897,13 +1909,13 @@
         <v>207072</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M22" s="7">
         <v>241</v>
@@ -1912,13 +1924,13 @@
         <v>260932</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1933,13 +1945,13 @@
         <v>10815</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H23" s="7">
         <v>25</v>
@@ -1948,13 +1960,13 @@
         <v>25233</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M23" s="7">
         <v>35</v>
@@ -1963,13 +1975,13 @@
         <v>36049</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2025,7 +2037,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14A24_2015-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A24_2015-Edad-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0B3A927-A430-491F-8981-0DABFFE50F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BBC180A-9AC1-4CD1-B18E-02B1AB387CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{89904A02-82D3-41BD-A7F9-27B78DD3CF2B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CE079A15-F14A-4508-AFE6-B790B31377CE}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="131">
-  <si>
-    <t>Población que recibe medicación o terapia por trastornos de ansiedad en 2015 (Tasa respuesta: 4,2%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="129">
+  <si>
+    <t>Población que recibe medicación o terapia por trastornos de ansiedad en 2016 (Tasa respuesta: 4,2%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -83,16 +83,16 @@
     <t>78,03%</t>
   </si>
   <si>
-    <t>30,19%</t>
+    <t>36,47%</t>
   </si>
   <si>
     <t>73,46%</t>
   </si>
   <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,16 +104,16 @@
     <t>21,97%</t>
   </si>
   <si>
-    <t>69,81%</t>
+    <t>63,53%</t>
   </si>
   <si>
     <t>26,54%</t>
   </si>
   <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
   </si>
   <si>
     <t>100%</t>
@@ -125,19 +125,19 @@
     <t>84,71%</t>
   </si>
   <si>
-    <t>40,45%</t>
+    <t>53,18%</t>
   </si>
   <si>
     <t>84,32%</t>
   </si>
   <si>
-    <t>58,49%</t>
+    <t>58,92%</t>
   </si>
   <si>
     <t>84,46%</t>
   </si>
   <si>
-    <t>60,12%</t>
+    <t>62,94%</t>
   </si>
   <si>
     <t>95,13%</t>
@@ -146,13 +146,13 @@
     <t>15,29%</t>
   </si>
   <si>
-    <t>59,55%</t>
+    <t>46,82%</t>
   </si>
   <si>
     <t>15,68%</t>
   </si>
   <si>
-    <t>41,51%</t>
+    <t>41,08%</t>
   </si>
   <si>
     <t>15,54%</t>
@@ -161,7 +161,7 @@
     <t>4,87%</t>
   </si>
   <si>
-    <t>39,88%</t>
+    <t>37,06%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -170,49 +170,49 @@
     <t>91,55%</t>
   </si>
   <si>
-    <t>64,25%</t>
+    <t>62,62%</t>
   </si>
   <si>
     <t>87,57%</t>
   </si>
   <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
   </si>
   <si>
     <t>88,5%</t>
   </si>
   <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
   </si>
   <si>
     <t>8,45%</t>
   </si>
   <si>
-    <t>35,75%</t>
+    <t>37,38%</t>
   </si>
   <si>
     <t>12,43%</t>
   </si>
   <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
   </si>
   <si>
     <t>11,5%</t>
   </si>
   <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -221,55 +221,55 @@
     <t>82,96%</t>
   </si>
   <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
   </si>
   <si>
     <t>92,23%</t>
   </si>
   <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
   </si>
   <si>
     <t>89,87%</t>
   </si>
   <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
   </si>
   <si>
     <t>17,04%</t>
   </si>
   <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
   </si>
   <si>
     <t>7,77%</t>
   </si>
   <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
   </si>
   <si>
     <t>10,13%</t>
   </si>
   <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -278,49 +278,49 @@
     <t>83,73%</t>
   </si>
   <si>
-    <t>50,97%</t>
+    <t>54,67%</t>
   </si>
   <si>
     <t>85,51%</t>
   </si>
   <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
   </si>
   <si>
     <t>85,09%</t>
   </si>
   <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
   </si>
   <si>
     <t>16,27%</t>
   </si>
   <si>
-    <t>49,03%</t>
+    <t>45,33%</t>
   </si>
   <si>
     <t>14,49%</t>
   </si>
   <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
   </si>
   <si>
     <t>14,91%</t>
   </si>
   <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -329,103 +329,97 @@
     <t>79,34%</t>
   </si>
   <si>
-    <t>42,18%</t>
+    <t>43,31%</t>
   </si>
   <si>
     <t>92,61%</t>
   </si>
   <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
   </si>
   <si>
     <t>90,89%</t>
   </si>
   <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
   </si>
   <si>
     <t>20,66%</t>
   </si>
   <si>
-    <t>57,82%</t>
+    <t>56,69%</t>
   </si>
   <si>
     <t>7,39%</t>
   </si>
   <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
   </si>
   <si>
     <t>9,11%</t>
   </si>
   <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
   </si>
   <si>
     <t>83,28%</t>
   </si>
   <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
   </si>
   <si>
     <t>89,14%</t>
   </si>
   <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
+    <t>92,75%</t>
   </si>
   <si>
     <t>87,86%</t>
   </si>
   <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
   </si>
   <si>
     <t>16,72%</t>
   </si>
   <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
   </si>
   <si>
     <t>10,86%</t>
   </si>
   <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
+    <t>7,25%</t>
   </si>
   <si>
     <t>12,14%</t>
   </si>
   <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -840,7 +834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{669C3C9E-4CF7-470D-96AB-E5E28184E940}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC38E4F8-4A7A-411F-BAB9-AC947935298F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1301,7 +1295,7 @@
         <v>43</v>
       </c>
       <c r="N10" s="7">
-        <v>41848</v>
+        <v>41847</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>48</v>
@@ -1403,7 +1397,7 @@
         <v>49</v>
       </c>
       <c r="N12" s="7">
-        <v>47286</v>
+        <v>47285</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>26</v>
@@ -1912,10 +1906,10 @@
         <v>115</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M22" s="7">
         <v>241</v>
@@ -1924,13 +1918,13 @@
         <v>260932</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1945,13 +1939,13 @@
         <v>10815</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H23" s="7">
         <v>25</v>
@@ -1960,13 +1954,13 @@
         <v>25233</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>125</v>
-      </c>
       <c r="L23" s="7" t="s">
-        <v>126</v>
+        <v>39</v>
       </c>
       <c r="M23" s="7">
         <v>35</v>
@@ -1975,13 +1969,13 @@
         <v>36049</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2037,7 +2031,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
